--- a/Оценка_DE_сам.оценка+TL оценка.xlsx
+++ b/Оценка_DE_сам.оценка+TL оценка.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9319C92-9D33-41FB-A863-4F7A109DA749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551E38DD-DBA3-4B17-9D39-CEDF16473F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Оценка компетенций" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Краткое описание</t>
   </si>
@@ -42,21 +42,81 @@
     <t>Копметенция/ уровень</t>
   </si>
   <si>
+    <t>Spark</t>
+  </si>
+  <si>
     <t>Scala</t>
   </si>
   <si>
+    <t>IDE</t>
+  </si>
+  <si>
+    <t>Airflow</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>CI/CD</t>
+  </si>
+  <si>
+    <t>Логирование/Мониторинг</t>
+  </si>
+  <si>
+    <t>Уровни решаемых задач</t>
+  </si>
+  <si>
+    <t>Общие навыки</t>
+  </si>
+  <si>
+    <t>Навыки, общая компьютерная грамотность</t>
+  </si>
+  <si>
     <t>Python</t>
   </si>
   <si>
     <t>Из Scala и Python выбираем одну компетенцию для ДИ и оцениваем её (инженер + PO). Знание второго языка должно быть не более, чем на 2 уровня ниже</t>
   </si>
   <si>
+    <t>Oozie</t>
+  </si>
+  <si>
     <t>Из Airflow и Oozie на аттестацию идёт на выбор одна из тем, которая используется в текущем проекте</t>
   </si>
   <si>
+    <t>Знание предметной области</t>
+  </si>
+  <si>
+    <t>Коммуникационные навыки</t>
+  </si>
+  <si>
+    <t>Знание API</t>
+  </si>
+  <si>
+    <t>Умение работать с локальными и продуктивно эксплуатируемыми приложениями</t>
+  </si>
+  <si>
+    <t>Конструкции языка</t>
+  </si>
+  <si>
+    <t>Сборка и библиотеки</t>
+  </si>
+  <si>
+    <t>Паттерны</t>
+  </si>
+  <si>
     <t>Опционально, если есть на проекте</t>
   </si>
   <si>
+    <t>Ответственность и принятие решений</t>
+  </si>
+  <si>
+    <t>NI-FI (проекты с Ni-Fi)</t>
+  </si>
+  <si>
+    <t>NI-FI (проекты без Ni-Fi)</t>
+  </si>
+  <si>
     <t>№</t>
   </si>
   <si>
@@ -70,6 +130,9 @@
   </si>
   <si>
     <t>ФИО (заполнить самостоятельно)</t>
+  </si>
+  <si>
+    <t>HDFS</t>
   </si>
   <si>
     <t>Баллы от 1 до 5</t>
@@ -98,13 +161,7 @@
     <t>Язык программирования</t>
   </si>
   <si>
-    <t>4.023</t>
-  </si>
-  <si>
-    <t>5.00001</t>
-  </si>
-  <si>
-    <t>Сафин Айрат</t>
+    <t>Сергеев Сергей Сергеевич</t>
   </si>
 </sst>
 </file>
@@ -239,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -289,6 +346,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -328,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -352,6 +420,9 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -373,10 +444,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -389,6 +460,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,39 +471,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -456,10 +531,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -478,6 +562,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2806700"/>
+          <a:ext cx="2368550" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -745,535 +895,540 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11:H30"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="34.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="5" customWidth="1"/>
     <col min="9" max="9" width="26.33203125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" style="31" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" style="31" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" style="33" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="33" customWidth="1"/>
     <col min="12" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="43"/>
+      <c r="A2" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="36"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="39"/>
+      <c r="D6" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>19</v>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="11">
+      <c r="A8" s="18"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="12">
         <v>1</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="12">
         <v>2</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="12">
         <v>3</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="12">
         <v>4</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="12">
         <v>5</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="11">
+      <c r="A10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="12">
         <v>1</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="12">
         <v>2</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="12">
         <v>3</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="12">
         <v>4</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="12">
         <v>5</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
     </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>1</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="30">
-        <v>3.1132</v>
-      </c>
-      <c r="J11" s="30">
-        <v>3</v>
-      </c>
-      <c r="K11" s="32"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="40">
+        <v>1</v>
+      </c>
+      <c r="J11" s="40">
+        <v>1</v>
+      </c>
+      <c r="K11" s="34"/>
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>2</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="30">
-        <v>5</v>
-      </c>
-      <c r="K12" s="32"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="32">
+        <v>2</v>
+      </c>
+      <c r="J12" s="32">
+        <v>2</v>
+      </c>
+      <c r="K12" s="34"/>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>3</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="30">
-        <v>5</v>
-      </c>
-      <c r="J13" s="30">
-        <v>5</v>
-      </c>
-      <c r="K13" s="32"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="32">
+        <v>3</v>
+      </c>
+      <c r="J13" s="32">
+        <v>3</v>
+      </c>
+      <c r="K13" s="34"/>
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>4</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="30">
-        <v>4.12</v>
-      </c>
-      <c r="J14" s="30">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="32">
         <v>4</v>
       </c>
-      <c r="K14" s="32"/>
+      <c r="J14" s="32">
+        <v>4</v>
+      </c>
+      <c r="K14" s="34"/>
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>5</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="30">
-        <v>4</v>
-      </c>
-      <c r="K15" s="32"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="32">
+        <v>5</v>
+      </c>
+      <c r="J15" s="32">
+        <v>5</v>
+      </c>
+      <c r="K15" s="34"/>
     </row>
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>6</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="30">
-        <v>4.12</v>
-      </c>
-      <c r="J16" s="30">
-        <v>4</v>
-      </c>
-      <c r="K16" s="32"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="32">
+        <v>6</v>
+      </c>
+      <c r="J16" s="32">
+        <v>6</v>
+      </c>
+      <c r="K16" s="34"/>
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>7</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="30">
-        <v>5</v>
-      </c>
-      <c r="J17" s="30">
-        <v>5</v>
-      </c>
-      <c r="K17" s="32"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="32">
+        <v>7</v>
+      </c>
+      <c r="J17" s="32">
+        <v>7</v>
+      </c>
+      <c r="K17" s="34"/>
     </row>
     <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>8</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="30">
-        <v>3.5</v>
-      </c>
-      <c r="J18" s="30">
-        <v>3.5</v>
-      </c>
-      <c r="K18" s="32"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="32">
+        <v>8</v>
+      </c>
+      <c r="J18" s="32">
+        <v>8</v>
+      </c>
+      <c r="K18" s="34"/>
     </row>
     <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>9</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="30">
-        <v>3</v>
-      </c>
-      <c r="J19" s="30">
-        <v>3</v>
-      </c>
-      <c r="K19" s="32"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="32">
+        <v>9</v>
+      </c>
+      <c r="J19" s="32">
+        <v>9</v>
+      </c>
+      <c r="K19" s="34"/>
     </row>
     <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>10</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="30">
-        <v>5</v>
-      </c>
-      <c r="J20" s="30">
-        <v>5</v>
-      </c>
-      <c r="K20" s="32"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="32">
+        <v>10</v>
+      </c>
+      <c r="J20" s="32">
+        <v>10</v>
+      </c>
+      <c r="K20" s="34"/>
     </row>
     <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>11</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="30">
-        <v>0</v>
-      </c>
-      <c r="J21" s="30">
-        <v>0</v>
-      </c>
-      <c r="K21" s="32"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="32">
+        <v>11</v>
+      </c>
+      <c r="J21" s="32">
+        <v>11</v>
+      </c>
+      <c r="K21" s="34"/>
     </row>
     <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>12</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
       <c r="I22" s="10">
-        <v>4.5</v>
+        <v>12</v>
       </c>
       <c r="J22" s="10">
-        <v>4.5</v>
-      </c>
-      <c r="K22" s="32"/>
+        <v>12</v>
+      </c>
+      <c r="K22" s="34"/>
     </row>
     <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>13</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="10">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J23" s="10">
-        <v>5</v>
-      </c>
-      <c r="K23" s="32"/>
+        <v>13</v>
+      </c>
+      <c r="K23" s="34"/>
     </row>
     <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>14</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="10">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J24" s="10">
-        <v>3</v>
-      </c>
-      <c r="K24" s="32"/>
+        <v>14</v>
+      </c>
+      <c r="K24" s="34"/>
     </row>
     <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>15</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="10">
-        <v>4.12</v>
+        <v>15</v>
       </c>
       <c r="J25" s="10">
-        <v>4</v>
-      </c>
-      <c r="K25" s="32"/>
+        <v>15</v>
+      </c>
+      <c r="K25" s="34"/>
     </row>
     <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>16</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="10">
-        <v>4.12</v>
+        <v>16</v>
       </c>
       <c r="J26" s="10">
-        <v>4</v>
-      </c>
-      <c r="K26" s="32"/>
+        <v>16</v>
+      </c>
+      <c r="K26" s="34"/>
     </row>
     <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>17</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="10">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J27" s="10">
-        <v>4</v>
-      </c>
-      <c r="K27" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="K27" s="34"/>
     </row>
     <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>18</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
       <c r="I28" s="10">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="J28" s="10">
-        <v>3</v>
-      </c>
-      <c r="K28" s="32"/>
+        <v>18</v>
+      </c>
+      <c r="K28" s="34"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>19</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
       <c r="I29" s="10">
-        <v>4.12</v>
+        <v>19</v>
       </c>
       <c r="J29" s="10">
-        <v>4</v>
-      </c>
-      <c r="K29" s="32"/>
+        <v>19</v>
+      </c>
+      <c r="K29" s="34"/>
     </row>
     <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>20</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="10">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J30" s="10">
-        <v>3</v>
-      </c>
-      <c r="K30" s="32"/>
+        <v>20</v>
+      </c>
+      <c r="K30" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:H30" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -1320,12 +1475,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1337,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1353,146 +1508,197 @@
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="26"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="51"/>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="26" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="52"/>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="53"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="51"/>
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="53"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="47" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="53"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="47"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="47"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="47"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="23"/>
-      <c r="B10" s="23"/>
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="47" t="s">
-        <v>8</v>
+      <c r="D10" s="53" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="23"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="47"/>
+      <c r="D11" s="53"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="27"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="48" t="s">
+      <c r="D19" s="54" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="48"/>
+      <c r="D20" s="54"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="48"/>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
+      <c r="A22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="48"/>
+      <c r="D22" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D19:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Оценка_DE_сам.оценка+TL оценка.xlsx
+++ b/Оценка_DE_сам.оценка+TL оценка.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551E38DD-DBA3-4B17-9D39-CEDF16473F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D8FB77-B245-4B63-A66E-BD2516B9B77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Краткое описание</t>
   </si>
@@ -396,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -416,9 +416,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -895,9 +892,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -911,524 +908,528 @@
     <col min="7" max="7" width="13.33203125" style="5" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" style="5" customWidth="1"/>
     <col min="9" max="9" width="26.33203125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" style="33" customWidth="1"/>
-    <col min="11" max="11" width="15.88671875" style="33" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" style="32" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" style="32" customWidth="1"/>
     <col min="12" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="46"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="38">
+        <v>37595</v>
+      </c>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="D4" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="37"/>
     </row>
     <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="41" t="s">
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="42"/>
+      <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="30" t="s">
+      <c r="D7" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="35" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="12">
+      <c r="A8" s="17"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="11">
         <v>1</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>2</v>
       </c>
-      <c r="F8" s="12">
-        <v>3</v>
-      </c>
-      <c r="G8" s="12">
+      <c r="F8" s="11">
+        <v>3</v>
+      </c>
+      <c r="G8" s="11">
         <v>4</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>5</v>
       </c>
-      <c r="I8" s="31"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="17"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="12">
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="11">
         <v>1</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>2</v>
       </c>
-      <c r="F10" s="12">
-        <v>3</v>
-      </c>
-      <c r="G10" s="12">
+      <c r="F10" s="11">
+        <v>3</v>
+      </c>
+      <c r="G10" s="11">
         <v>4</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>5</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
     </row>
     <row r="11" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>1</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="40">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="39">
         <v>1</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="39">
         <v>1</v>
       </c>
-      <c r="K11" s="34"/>
+      <c r="K11" s="33"/>
     </row>
     <row r="12" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>2</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="32">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="31">
         <v>2</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="31">
         <v>2</v>
       </c>
-      <c r="K12" s="34"/>
+      <c r="K12" s="33"/>
     </row>
     <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>3</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="32">
-        <v>3</v>
-      </c>
-      <c r="J13" s="32">
-        <v>3</v>
-      </c>
-      <c r="K13" s="34"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="31">
+        <v>3</v>
+      </c>
+      <c r="J13" s="31">
+        <v>3</v>
+      </c>
+      <c r="K13" s="33"/>
     </row>
     <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>4</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="32">
-        <v>4</v>
-      </c>
-      <c r="J14" s="32">
-        <v>4</v>
-      </c>
-      <c r="K14" s="34"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="31">
+        <v>3</v>
+      </c>
+      <c r="J14" s="31">
+        <v>3</v>
+      </c>
+      <c r="K14" s="33"/>
     </row>
     <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>5</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="32">
-        <v>5</v>
-      </c>
-      <c r="J15" s="32">
-        <v>5</v>
-      </c>
-      <c r="K15" s="34"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="31">
+        <v>3</v>
+      </c>
+      <c r="J15" s="31">
+        <v>3</v>
+      </c>
+      <c r="K15" s="33"/>
     </row>
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>6</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="32">
-        <v>6</v>
-      </c>
-      <c r="J16" s="32">
-        <v>6</v>
-      </c>
-      <c r="K16" s="34"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="31">
+        <v>3</v>
+      </c>
+      <c r="J16" s="31">
+        <v>3</v>
+      </c>
+      <c r="K16" s="33"/>
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>7</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="32">
-        <v>7</v>
-      </c>
-      <c r="J17" s="32">
-        <v>7</v>
-      </c>
-      <c r="K17" s="34"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="31">
+        <v>3</v>
+      </c>
+      <c r="J17" s="31">
+        <v>3</v>
+      </c>
+      <c r="K17" s="33"/>
     </row>
     <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>8</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="32">
-        <v>8</v>
-      </c>
-      <c r="J18" s="32">
-        <v>8</v>
-      </c>
-      <c r="K18" s="34"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="31">
+        <v>3</v>
+      </c>
+      <c r="J18" s="31">
+        <v>3</v>
+      </c>
+      <c r="K18" s="33"/>
     </row>
     <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>9</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="32">
-        <v>9</v>
-      </c>
-      <c r="J19" s="32">
-        <v>9</v>
-      </c>
-      <c r="K19" s="34"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="31">
+        <v>3</v>
+      </c>
+      <c r="J19" s="31">
+        <v>3</v>
+      </c>
+      <c r="K19" s="33"/>
     </row>
     <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>10</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="32">
-        <v>10</v>
-      </c>
-      <c r="J20" s="32">
-        <v>10</v>
-      </c>
-      <c r="K20" s="34"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="31">
+        <v>3</v>
+      </c>
+      <c r="J20" s="31">
+        <v>3</v>
+      </c>
+      <c r="K20" s="33"/>
     </row>
     <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>11</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="32">
-        <v>11</v>
-      </c>
-      <c r="J21" s="32">
-        <v>11</v>
-      </c>
-      <c r="K21" s="34"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="31">
+        <v>3</v>
+      </c>
+      <c r="J21" s="31">
+        <v>3</v>
+      </c>
+      <c r="K21" s="33"/>
     </row>
     <row r="22" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>12</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="10">
-        <v>12</v>
-      </c>
-      <c r="J22" s="10">
-        <v>12</v>
-      </c>
-      <c r="K22" s="34"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="31">
+        <v>3</v>
+      </c>
+      <c r="J22" s="31">
+        <v>3</v>
+      </c>
+      <c r="K22" s="33"/>
     </row>
     <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>13</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="10">
-        <v>13</v>
-      </c>
-      <c r="J23" s="10">
-        <v>13</v>
-      </c>
-      <c r="K23" s="34"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="31">
+        <v>3</v>
+      </c>
+      <c r="J23" s="31">
+        <v>3</v>
+      </c>
+      <c r="K23" s="33"/>
     </row>
     <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>14</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="10">
-        <v>14</v>
-      </c>
-      <c r="J24" s="10">
-        <v>14</v>
-      </c>
-      <c r="K24" s="34"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="31">
+        <v>3</v>
+      </c>
+      <c r="J24" s="31">
+        <v>3</v>
+      </c>
+      <c r="K24" s="33"/>
     </row>
     <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>15</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="10">
-        <v>15</v>
-      </c>
-      <c r="J25" s="10">
-        <v>15</v>
-      </c>
-      <c r="K25" s="34"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="31">
+        <v>3</v>
+      </c>
+      <c r="J25" s="31">
+        <v>3</v>
+      </c>
+      <c r="K25" s="33"/>
     </row>
     <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>16</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="10">
-        <v>16</v>
-      </c>
-      <c r="J26" s="10">
-        <v>16</v>
-      </c>
-      <c r="K26" s="34"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="31">
+        <v>3</v>
+      </c>
+      <c r="J26" s="31">
+        <v>3</v>
+      </c>
+      <c r="K26" s="33"/>
     </row>
     <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>17</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="10">
-        <v>17</v>
-      </c>
-      <c r="J27" s="10">
-        <v>17</v>
-      </c>
-      <c r="K27" s="34"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="31">
+        <v>3</v>
+      </c>
+      <c r="J27" s="31">
+        <v>3</v>
+      </c>
+      <c r="K27" s="33"/>
     </row>
     <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>18</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="10">
-        <v>18</v>
-      </c>
-      <c r="J28" s="10">
-        <v>18</v>
-      </c>
-      <c r="K28" s="34"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="31">
+        <v>3</v>
+      </c>
+      <c r="J28" s="31">
+        <v>3</v>
+      </c>
+      <c r="K28" s="33"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>19</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="10">
-        <v>19</v>
-      </c>
-      <c r="J29" s="10">
-        <v>19</v>
-      </c>
-      <c r="K29" s="34"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="31">
+        <v>3</v>
+      </c>
+      <c r="J29" s="31">
+        <v>3</v>
+      </c>
+      <c r="K29" s="33"/>
     </row>
     <row r="30" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>20</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="10">
-        <v>20</v>
-      </c>
-      <c r="J30" s="10">
-        <v>20</v>
-      </c>
-      <c r="K30" s="34"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="31">
+        <v>3</v>
+      </c>
+      <c r="J30" s="31">
+        <v>3</v>
+      </c>
+      <c r="K30" s="33"/>
     </row>
   </sheetData>
   <autoFilter ref="B6:H30" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -1508,24 +1509,24 @@
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="26"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1534,39 +1535,39 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="49" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="52" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="52"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="53"/>
+      <c r="D6" s="52"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="53"/>
+      <c r="D7" s="52"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1574,7 +1575,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="53"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -1582,7 +1583,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="29"/>
+      <c r="D9" s="28"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1590,7 +1591,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="52" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1600,7 +1601,7 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="53"/>
+      <c r="D11" s="52"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -1608,7 +1609,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="29"/>
+      <c r="D12" s="28"/>
     </row>
     <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1616,7 +1617,7 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1661,7 +1662,7 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="53" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1671,7 +1672,7 @@
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="54"/>
+      <c r="D20" s="53"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
@@ -1679,7 +1680,7 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="54"/>
+      <c r="D21" s="53"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -1687,7 +1688,7 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="54"/>
+      <c r="D22" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="5">
